--- a/medicine/Handicap/Lit_médicalisé/Lit_médicalisé.xlsx
+++ b/medicine/Handicap/Lit_médicalisé/Lit_médicalisé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lit_m%C3%A9dicalis%C3%A9</t>
+          <t>Lit_médicalisé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un lit médicalisé est un lit adapté aux besoins de patients dont l’état de santé demande de longues périodes alitées ou réduit son niveau de mobilité. Il permet au personnel soignant, au patient et à son entourage de prodiguer les soins avec moins d’efforts, tout en réduisant les risques de manipulations et de chutes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lit_m%C3%A9dicalis%C3%A9</t>
+          <t>Lit_médicalisé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les lits à barrières latérales réglables sont apparus pour la première fois en Bretagne quelque part entre 1815 et 1825[1].
-En 1874, la société Andrew Wuest and Son Mattress Company, de Cincinnati, dans l'Ohio, a déposé un brevet pour un type de cadre de matelas avec une tête articulée qui pouvait être relevée, un précurseur du lit d'hôpital moderne[2],[3].
-Le lit d'hôpital moderne réglable en 3 segments a été inventé par Willis Dew Gatch, président du département de chirurgie de l'école de médecine de l'université de l'Indiana, au début du XXe siècle[4]. Ce type de lit est parfois appelé lit pliant.
-Le lit d'hôpital moderne à bouton-poussoir a été inventé en 1945 et comprenait à l'origine des toilettes intégrées dans l'espoir de se débarrasser de suddenly[incompréhensible][5],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les lits à barrières latérales réglables sont apparus pour la première fois en Bretagne quelque part entre 1815 et 1825.
+En 1874, la société Andrew Wuest and Son Mattress Company, de Cincinnati, dans l'Ohio, a déposé un brevet pour un type de cadre de matelas avec une tête articulée qui pouvait être relevée, un précurseur du lit d'hôpital moderne,.
+Le lit d'hôpital moderne réglable en 3 segments a été inventé par Willis Dew Gatch, président du département de chirurgie de l'école de médecine de l'université de l'Indiana, au début du XXe siècle. Ce type de lit est parfois appelé lit pliant.
+Le lit d'hôpital moderne à bouton-poussoir a été inventé en 1945 et comprenait à l'origine des toilettes intégrées dans l'espoir de se débarrasser de suddenly[incompréhensible],.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lit_m%C3%A9dicalis%C3%A9</t>
+          <t>Lit_médicalisé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,11 +559,13 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lit médicalisé est utilisé dans tout type d'établissements de soins tels que hôpitaux, cliniques, Etablissements d'Hébergement pour Personnes Âgées Dépendantes (EHPAD)...
 De manière générale, il trouve son utilité dès lors qu’un patient est alité avec nécessité d'un intervenant pour les soins.
-Le lit médicalisé peut être également installé au domicile du patient. Le patient peut choisir le lit qui lui convient[7].
+Le lit médicalisé peut être également installé au domicile du patient. Le patient peut choisir le lit qui lui convient.
 </t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lit_m%C3%A9dicalis%C3%A9</t>
+          <t>Lit_médicalisé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,23 +594,95 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le lit médicalisé se compose d’un piètement, d’un panneau tête de lit fixe, d’un panneau de pied, d’un relève-jambe, d’un relève-buste et d’un passage libre à partir du sol (pour permettre l’utilisation d’un lève-personne par exemple).
-Il favorise l’accès aux soins dans de bonnes conditions de stabilité, de confort et de sécurité pour le patient et le soignant[8].
-Conçu spécifiquement en fonction de l’environnement hospitalier, ces lits – considérés en France comme des dispositifs médicaux de classe 1, soit à faible degré de risques – possèdent ainsi un certain nombre de caractéristiques, dont une grande modularité permise par leurs différents équipements disponibles[9].
-Principaux équipements
-Pour le bien-être de la personne alitée, les lits médicalisés offrent différentes spécificités, à savoir :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lit médicalisé se compose d’un piètement, d’un panneau tête de lit fixe, d’un panneau de pied, d’un relève-jambe, d’un relève-buste et d’un passage libre à partir du sol (pour permettre l’utilisation d’un lève-personne par exemple).
+Il favorise l’accès aux soins dans de bonnes conditions de stabilité, de confort et de sécurité pour le patient et le soignant.
+Conçu spécifiquement en fonction de l’environnement hospitalier, ces lits – considérés en France comme des dispositifs médicaux de classe 1, soit à faible degré de risques – possèdent ainsi un certain nombre de caractéristiques, dont une grande modularité permise par leurs différents équipements disponibles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lit_médicalisé</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lit_m%C3%A9dicalis%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Principaux équipements</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour le bien-être de la personne alitée, les lits médicalisés offrent différentes spécificités, à savoir :
 La hauteur est fixe ou variable et souvent électrique ;
 Le relève buste électrique peut être inclinable ;
 Le relève-jambes manuel ou électrique (droit ou avec plicature des genoux) ;
 Un sommier qui est souvent en trois parties pouvant bouger les unes par rapport aux autres (monter le buste ou relever les pieds) ;
-De ridelles ou des « barrières de lit » pour prévenir la chute de patients agités[10] ;
+De ridelles ou des « barrières de lit » pour prévenir la chute de patients agités ;
 Certains sont équipés de roues pour faciliter le déplacement ;
 La télécommande pour les lits électriques.
 En ce qui concerne la partie esthétique, il existe de nombreuses options pour le choix et la couleur des panneaux d'habillage.
-Équipements complémentaires
-Pour faciliter la vie des personnes restant une grande partie de leur journée allongées, des équipements complémentaires peuvent être adaptés[11] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lit_médicalisé</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lit_m%C3%A9dicalis%C3%A9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Équipements complémentaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Pour faciliter la vie des personnes restant une grande partie de leur journée allongées, des équipements complémentaires peuvent être adaptés :
 Un matelas pour la prévention et le traitement des escarres,
 Une potence lit médicalisé permettant à l'individu de s'asseoir et de se lever,
 Une table à manger au lit,
@@ -606,68 +694,110 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Lit_m%C3%A9dicalis%C3%A9</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lit_médicalisé</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Handicap/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Lit_m%C3%A9dicalis%C3%A9</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Normes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les exigences concernant les dispositifs médicaux sont spécifiées dans la norme NF EN ISO 10535[12].
-La norme NF EN 60601-2-52[13]. définit les exigences particulières pour la sécurité de base et les performances essentielles des lits médicalisés.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les exigences concernant les dispositifs médicaux sont spécifiées dans la norme NF EN ISO 10535.
+La norme NF EN 60601-2-52. définit les exigences particulières pour la sécurité de base et les performances essentielles des lits médicalisés.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Lit_m%C3%A9dicalis%C3%A9</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Lit_médicalisé</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Handicap/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Lit_m%C3%A9dicalis%C3%A9</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Inconvénients</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coût
-Un lit d'hôpital peut coûter plus de 1000 $ en moyenne[14],[15]; avec divers coûts associés aux fonctions entièrement manuelles, aux fonctions à deux moteurs et aux fonctions à trois moteurs entièrement électriques (levage et abaissement de l'ensemble du lit). D'autres coûts sont associés aux modèles bariatriques robustes qui ont également une largeur supplémentaire[16].
-Impact sur la santé du patient
-Les lits d'hôpitaux peuvent rendre la colonne vertébrale d'un patient plus arrondie, car un patient qui s'assoit beaucoup, par exemple lorsqu'il regarde la télévision, a tendance à glisser vers le bas[17]. Certains fabricants de lits de catégorie a équipent leurs lits d'une fonction intégrée qui agit comme un dispositif antidérapant. LINET propose Ergoframe, tandis que d'autres portent des noms différents[18].
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Coût</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un lit d'hôpital peut coûter plus de 1000 $ en moyenne,; avec divers coûts associés aux fonctions entièrement manuelles, aux fonctions à deux moteurs et aux fonctions à trois moteurs entièrement électriques (levage et abaissement de l'ensemble du lit). D'autres coûts sont associés aux modèles bariatriques robustes qui ont également une largeur supplémentaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Lit_médicalisé</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lit_m%C3%A9dicalis%C3%A9</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Inconvénients</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Impact sur la santé du patient</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les lits d'hôpitaux peuvent rendre la colonne vertébrale d'un patient plus arrondie, car un patient qui s'assoit beaucoup, par exemple lorsqu'il regarde la télévision, a tendance à glisser vers le bas. Certains fabricants de lits de catégorie a équipent leurs lits d'une fonction intégrée qui agit comme un dispositif antidérapant. LINET propose Ergoframe, tandis que d'autres portent des noms différents.
 </t>
         </is>
       </c>
